--- a/docs/StructureDefinition-VAPatientAppointment.xlsx
+++ b/docs/StructureDefinition-VAPatientAppointment.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="292">
   <si>
     <t>Path</t>
   </si>
@@ -844,7 +844,7 @@
     <t>CLINIC</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Practitioner|RelatedPerson|Device|HealthcareService|Location)
+    <t xml:space="preserve">Reference(http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/VAPatient)
 </t>
   </si>
   <si>
@@ -894,6 +894,9 @@
   </si>
   <si>
     <t>Participation status of the actor.</t>
+  </si>
+  <si>
+    <t>accepted</t>
   </si>
   <si>
     <t>The Participation status of an appointment.</t>
@@ -5198,7 +5201,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
         <v>276</v>
       </c>
@@ -5214,7 +5217,7 @@
         <v>51</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>41</v>
@@ -5238,7 +5241,7 @@
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>41</v>
+        <v>279</v>
       </c>
       <c r="R37" t="s" s="2">
         <v>41</v>
@@ -5259,10 +5262,10 @@
         <v>126</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>41</v>
@@ -5298,21 +5301,21 @@
         <v>41</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5335,16 +5338,16 @@
         <v>41</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5394,7 +5397,7 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -5412,7 +5415,7 @@
         <v>41</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>41</v>
@@ -5421,7 +5424,7 @@
         <v>41</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
